--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Cd93</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H2">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I2">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J2">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>169.690907399947</v>
+        <v>196.8487906666667</v>
       </c>
       <c r="N2">
-        <v>169.690907399947</v>
+        <v>590.546372</v>
       </c>
       <c r="O2">
-        <v>0.5547945231140841</v>
+        <v>0.5898085209504824</v>
       </c>
       <c r="P2">
-        <v>0.5547945231140841</v>
+        <v>0.5923834015035012</v>
       </c>
       <c r="Q2">
-        <v>1168.746569475086</v>
+        <v>3024.647875403261</v>
       </c>
       <c r="R2">
-        <v>1168.746569475086</v>
+        <v>27221.83087862935</v>
       </c>
       <c r="S2">
-        <v>0.001606479609606008</v>
+        <v>0.003483946615285979</v>
       </c>
       <c r="T2">
-        <v>0.001606479609606008</v>
+        <v>0.003528480182098695</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H3">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I3">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J3">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>54.6034433841246</v>
+        <v>0.2899643333333333</v>
       </c>
       <c r="N3">
-        <v>54.6034433841246</v>
+        <v>0.869893</v>
       </c>
       <c r="O3">
-        <v>0.1785227729455335</v>
+        <v>0.0008688061226717315</v>
       </c>
       <c r="P3">
-        <v>0.1785227729455335</v>
+        <v>0.0008725990010553907</v>
       </c>
       <c r="Q3">
-        <v>376.0813594231663</v>
+        <v>4.455399506337445</v>
       </c>
       <c r="R3">
-        <v>376.0813594231663</v>
+        <v>40.098595557037</v>
       </c>
       <c r="S3">
-        <v>0.0005169358792108129</v>
+        <v>5.131960700642432E-06</v>
       </c>
       <c r="T3">
-        <v>0.0005169358792108129</v>
+        <v>5.197560016584744E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H4">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I4">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J4">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>77.3133188485382</v>
+        <v>54.63182799999999</v>
       </c>
       <c r="N4">
-        <v>77.3133188485382</v>
+        <v>163.895484</v>
       </c>
       <c r="O4">
-        <v>0.2527713860345311</v>
+        <v>0.1636907067621498</v>
       </c>
       <c r="P4">
-        <v>0.2527713860345311</v>
+        <v>0.1644053183735123</v>
       </c>
       <c r="Q4">
-        <v>532.4956862066419</v>
+        <v>839.4364117248172</v>
       </c>
       <c r="R4">
-        <v>532.4956862066419</v>
+        <v>7554.927705523355</v>
       </c>
       <c r="S4">
-        <v>0.0007319323833209891</v>
+        <v>0.0009669064849363891</v>
       </c>
       <c r="T4">
-        <v>0.0007319323833209891</v>
+        <v>0.0009792659724094854</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H5">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I5">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J5">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.25495216737674</v>
+        <v>77.62766766666668</v>
       </c>
       <c r="N5">
-        <v>4.25495216737674</v>
+        <v>232.883003</v>
       </c>
       <c r="O5">
-        <v>0.01391131790585118</v>
+        <v>0.2325920301377057</v>
       </c>
       <c r="P5">
-        <v>0.01391131790585118</v>
+        <v>0.233607438823602</v>
       </c>
       <c r="Q5">
-        <v>29.30599420498885</v>
+        <v>1192.775222470559</v>
       </c>
       <c r="R5">
-        <v>29.30599420498885</v>
+        <v>10734.97700223503</v>
       </c>
       <c r="S5">
-        <v>4.02820280796127E-05</v>
+        <v>0.001373900490340299</v>
       </c>
       <c r="T5">
-        <v>4.02820280796127E-05</v>
+        <v>0.001391462380930741</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2310.19956376667</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H6">
-        <v>2310.19956376667</v>
+        <v>46.096009</v>
       </c>
       <c r="I6">
-        <v>0.9712494209333227</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J6">
-        <v>0.9712494209333227</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>169.690907399947</v>
+        <v>4.352083</v>
       </c>
       <c r="N6">
-        <v>169.690907399947</v>
+        <v>8.704166000000001</v>
       </c>
       <c r="O6">
-        <v>0.5547945231140841</v>
+        <v>0.0130399360269903</v>
       </c>
       <c r="P6">
-        <v>0.5547945231140841</v>
+        <v>0.008731242298328987</v>
       </c>
       <c r="Q6">
-        <v>392019.860250528</v>
+        <v>66.87121904558234</v>
       </c>
       <c r="R6">
-        <v>392019.860250528</v>
+        <v>401.2273142734941</v>
       </c>
       <c r="S6">
-        <v>0.538843859311533</v>
+        <v>7.702574542593406E-05</v>
       </c>
       <c r="T6">
-        <v>0.538843859311533</v>
+        <v>5.20068849609278E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2310.19956376667</v>
+        <v>2518.056722</v>
       </c>
       <c r="H7">
-        <v>2310.19956376667</v>
+        <v>7554.170166</v>
       </c>
       <c r="I7">
-        <v>0.9712494209333227</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J7">
-        <v>0.9712494209333227</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.6034433841246</v>
+        <v>196.8487906666667</v>
       </c>
       <c r="N7">
-        <v>54.6034433841246</v>
+        <v>590.546372</v>
       </c>
       <c r="O7">
-        <v>0.1785227729455335</v>
+        <v>0.5898085209504824</v>
       </c>
       <c r="P7">
-        <v>0.1785227729455335</v>
+        <v>0.5923834015035012</v>
       </c>
       <c r="Q7">
-        <v>126144.8510861627</v>
+        <v>495676.4205557709</v>
       </c>
       <c r="R7">
-        <v>126144.8510861627</v>
+        <v>4461087.785001938</v>
       </c>
       <c r="S7">
-        <v>0.1733901398467605</v>
+        <v>0.5709458617367509</v>
       </c>
       <c r="T7">
-        <v>0.1733901398467605</v>
+        <v>0.5782439803613413</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2310.19956376667</v>
+        <v>2518.056722</v>
       </c>
       <c r="H8">
-        <v>2310.19956376667</v>
+        <v>7554.170166</v>
       </c>
       <c r="I8">
-        <v>0.9712494209333227</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J8">
-        <v>0.9712494209333227</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>77.3133188485382</v>
+        <v>0.2899643333333333</v>
       </c>
       <c r="N8">
-        <v>77.3133188485382</v>
+        <v>0.869893</v>
       </c>
       <c r="O8">
-        <v>0.2527713860345311</v>
+        <v>0.0008688061226717315</v>
       </c>
       <c r="P8">
-        <v>0.2527713860345311</v>
+        <v>0.0008725990010553907</v>
       </c>
       <c r="Q8">
-        <v>178609.1954772464</v>
+        <v>730.1466386902486</v>
       </c>
       <c r="R8">
-        <v>178609.1954772464</v>
+        <v>6571.319748212238</v>
       </c>
       <c r="S8">
-        <v>0.2455040623145517</v>
+        <v>0.0008410208445134049</v>
       </c>
       <c r="T8">
-        <v>0.2455040623145517</v>
+        <v>0.0008517711980939376</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2310.19956376667</v>
+        <v>2518.056722</v>
       </c>
       <c r="H9">
-        <v>2310.19956376667</v>
+        <v>7554.170166</v>
       </c>
       <c r="I9">
-        <v>0.9712494209333227</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J9">
-        <v>0.9712494209333227</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.25495216737674</v>
+        <v>54.63182799999999</v>
       </c>
       <c r="N9">
-        <v>4.25495216737674</v>
+        <v>163.895484</v>
       </c>
       <c r="O9">
-        <v>0.01391131790585118</v>
+        <v>0.1636907067621498</v>
       </c>
       <c r="P9">
-        <v>0.01391131790585118</v>
+        <v>0.1644053183735123</v>
       </c>
       <c r="Q9">
-        <v>9829.788640921794</v>
+        <v>137566.0417305478</v>
       </c>
       <c r="R9">
-        <v>9829.788640921794</v>
+        <v>1238094.37557493</v>
       </c>
       <c r="S9">
-        <v>0.01351135946047732</v>
+        <v>0.1584557162382192</v>
       </c>
       <c r="T9">
-        <v>0.01351135946047732</v>
+        <v>0.1604811773044107</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.49820118108</v>
+        <v>2518.056722</v>
       </c>
       <c r="H10">
-        <v>61.49820118108</v>
+        <v>7554.170166</v>
       </c>
       <c r="I10">
-        <v>0.02585494916645983</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J10">
-        <v>0.02585494916645983</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.690907399947</v>
+        <v>77.62766766666668</v>
       </c>
       <c r="N10">
-        <v>169.690907399947</v>
+        <v>232.883003</v>
       </c>
       <c r="O10">
-        <v>0.5547945231140841</v>
+        <v>0.2325920301377057</v>
       </c>
       <c r="P10">
-        <v>0.5547945231140841</v>
+        <v>0.233607438823602</v>
       </c>
       <c r="Q10">
-        <v>10435.68556188196</v>
+        <v>195470.8703812321</v>
       </c>
       <c r="R10">
-        <v>10435.68556188196</v>
+        <v>1759237.833431089</v>
       </c>
       <c r="S10">
-        <v>0.01434418419294497</v>
+        <v>0.2251535072197131</v>
       </c>
       <c r="T10">
-        <v>0.01434418419294497</v>
+        <v>0.2280315331667505</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>61.49820118108</v>
+        <v>2518.056722</v>
       </c>
       <c r="H11">
-        <v>61.49820118108</v>
+        <v>7554.170166</v>
       </c>
       <c r="I11">
-        <v>0.02585494916645983</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J11">
-        <v>0.02585494916645983</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.6034433841246</v>
+        <v>4.352083</v>
       </c>
       <c r="N11">
-        <v>54.6034433841246</v>
+        <v>8.704166000000001</v>
       </c>
       <c r="O11">
-        <v>0.1785227729455335</v>
+        <v>0.0130399360269903</v>
       </c>
       <c r="P11">
-        <v>0.1785227729455335</v>
+        <v>0.008731242298328987</v>
       </c>
       <c r="Q11">
-        <v>3358.013546416606</v>
+        <v>10958.79185285193</v>
       </c>
       <c r="R11">
-        <v>3358.013546416606</v>
+        <v>65752.75111711156</v>
       </c>
       <c r="S11">
-        <v>0.00461569721956222</v>
+        <v>0.01262290598976805</v>
       </c>
       <c r="T11">
-        <v>0.00461569721956222</v>
+        <v>0.008522838903438145</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>61.49820118108</v>
+        <v>1.521120333333333</v>
       </c>
       <c r="H12">
-        <v>61.49820118108</v>
+        <v>4.563361</v>
       </c>
       <c r="I12">
-        <v>0.02585494916645983</v>
+        <v>0.000584765779652879</v>
       </c>
       <c r="J12">
-        <v>0.02585494916645983</v>
+        <v>0.0005896662918198867</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>77.3133188485382</v>
+        <v>196.8487906666667</v>
       </c>
       <c r="N12">
-        <v>77.3133188485382</v>
+        <v>590.546372</v>
       </c>
       <c r="O12">
-        <v>0.2527713860345311</v>
+        <v>0.5898085209504824</v>
       </c>
       <c r="P12">
-        <v>0.2527713860345311</v>
+        <v>0.5923834015035012</v>
       </c>
       <c r="Q12">
-        <v>4754.630036524387</v>
+        <v>299.4306980751436</v>
       </c>
       <c r="R12">
-        <v>4754.630036524387</v>
+        <v>2694.876282676292</v>
       </c>
       <c r="S12">
-        <v>0.006535391336658397</v>
+        <v>0.0003448998395995203</v>
       </c>
       <c r="T12">
-        <v>0.006535391336658397</v>
+        <v>0.0003493085237002207</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>1.521120333333333</v>
+      </c>
+      <c r="H13">
+        <v>4.563361</v>
+      </c>
+      <c r="I13">
+        <v>0.000584765779652879</v>
+      </c>
+      <c r="J13">
+        <v>0.0005896662918198867</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.2899643333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.869893</v>
+      </c>
+      <c r="O13">
+        <v>0.0008688061226717315</v>
+      </c>
+      <c r="P13">
+        <v>0.0008725990010553907</v>
+      </c>
+      <c r="Q13">
+        <v>0.4410706433747778</v>
+      </c>
+      <c r="R13">
+        <v>3.969635790373001</v>
+      </c>
+      <c r="S13">
+        <v>5.080480896913299E-07</v>
+      </c>
+      <c r="T13">
+        <v>5.145422171980697E-07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.521120333333333</v>
+      </c>
+      <c r="H14">
+        <v>4.563361</v>
+      </c>
+      <c r="I14">
+        <v>0.000584765779652879</v>
+      </c>
+      <c r="J14">
+        <v>0.0005896662918198867</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>54.63182799999999</v>
+      </c>
+      <c r="N14">
+        <v>163.895484</v>
+      </c>
+      <c r="O14">
+        <v>0.1636907067621498</v>
+      </c>
+      <c r="P14">
+        <v>0.1644053183735123</v>
+      </c>
+      <c r="Q14">
+        <v>83.10158441796932</v>
+      </c>
+      <c r="R14">
+        <v>747.914259761724</v>
+      </c>
+      <c r="S14">
+        <v>9.572072376169933E-05</v>
+      </c>
+      <c r="T14">
+        <v>9.694427444077691E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.521120333333333</v>
+      </c>
+      <c r="H15">
+        <v>4.563361</v>
+      </c>
+      <c r="I15">
+        <v>0.000584765779652879</v>
+      </c>
+      <c r="J15">
+        <v>0.0005896662918198867</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>77.62766766666668</v>
+      </c>
+      <c r="N15">
+        <v>232.883003</v>
+      </c>
+      <c r="O15">
+        <v>0.2325920301377057</v>
+      </c>
+      <c r="P15">
+        <v>0.233607438823602</v>
+      </c>
+      <c r="Q15">
+        <v>118.0810237170092</v>
+      </c>
+      <c r="R15">
+        <v>1062.729213453083</v>
+      </c>
+      <c r="S15">
+        <v>0.0001360118598445214</v>
+      </c>
+      <c r="T15">
+        <v>0.0001377504321926544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.521120333333333</v>
+      </c>
+      <c r="H16">
+        <v>4.563361</v>
+      </c>
+      <c r="I16">
+        <v>0.000584765779652879</v>
+      </c>
+      <c r="J16">
+        <v>0.0005896662918198867</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.352083</v>
+      </c>
+      <c r="N16">
+        <v>8.704166000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.0130399360269903</v>
+      </c>
+      <c r="P16">
+        <v>0.008731242298328987</v>
+      </c>
+      <c r="Q16">
+        <v>6.620041943654334</v>
+      </c>
+      <c r="R16">
+        <v>39.72025166192601</v>
+      </c>
+      <c r="S16">
+        <v>7.625308357446648E-06</v>
+      </c>
+      <c r="T16">
+        <v>5.148519269036599E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.449807</v>
+      </c>
+      <c r="H17">
+        <v>4.349421</v>
+      </c>
+      <c r="I17">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J17">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>196.8487906666667</v>
+      </c>
+      <c r="N17">
+        <v>590.546372</v>
+      </c>
+      <c r="O17">
+        <v>0.5898085209504824</v>
+      </c>
+      <c r="P17">
+        <v>0.5923834015035012</v>
+      </c>
+      <c r="Q17">
+        <v>285.392754650068</v>
+      </c>
+      <c r="R17">
+        <v>2568.534791850612</v>
+      </c>
+      <c r="S17">
+        <v>0.0003287302068038854</v>
+      </c>
+      <c r="T17">
+        <v>0.0003329322024842517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.449807</v>
+      </c>
+      <c r="H18">
+        <v>4.349421</v>
+      </c>
+      <c r="I18">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J18">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.2899643333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.869893</v>
+      </c>
+      <c r="O18">
+        <v>0.0008688061226717315</v>
+      </c>
+      <c r="P18">
+        <v>0.0008725990010553907</v>
+      </c>
+      <c r="Q18">
+        <v>0.420392320217</v>
+      </c>
+      <c r="R18">
+        <v>3.783530881953001</v>
+      </c>
+      <c r="S18">
+        <v>4.842297224158583E-07</v>
+      </c>
+      <c r="T18">
+        <v>4.904193915116173E-07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>61.49820118108</v>
-      </c>
-      <c r="H13">
-        <v>61.49820118108</v>
-      </c>
-      <c r="I13">
-        <v>0.02585494916645983</v>
-      </c>
-      <c r="J13">
-        <v>0.02585494916645983</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4.25495216737674</v>
-      </c>
-      <c r="N13">
-        <v>4.25495216737674</v>
-      </c>
-      <c r="O13">
-        <v>0.01391131790585118</v>
-      </c>
-      <c r="P13">
-        <v>0.01391131790585118</v>
-      </c>
-      <c r="Q13">
-        <v>261.6719044052072</v>
-      </c>
-      <c r="R13">
-        <v>261.6719044052072</v>
-      </c>
-      <c r="S13">
-        <v>0.0003596764172942446</v>
-      </c>
-      <c r="T13">
-        <v>0.0003596764172942446</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.449807</v>
+      </c>
+      <c r="H19">
+        <v>4.349421</v>
+      </c>
+      <c r="I19">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J19">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>54.63182799999999</v>
+      </c>
+      <c r="N19">
+        <v>163.895484</v>
+      </c>
+      <c r="O19">
+        <v>0.1636907067621498</v>
+      </c>
+      <c r="P19">
+        <v>0.1644053183735123</v>
+      </c>
+      <c r="Q19">
+        <v>79.20560665719599</v>
+      </c>
+      <c r="R19">
+        <v>712.850459914764</v>
+      </c>
+      <c r="S19">
+        <v>9.123313410101328E-05</v>
+      </c>
+      <c r="T19">
+        <v>9.239932214051842E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.449807</v>
+      </c>
+      <c r="H20">
+        <v>4.349421</v>
+      </c>
+      <c r="I20">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J20">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>77.62766766666668</v>
+      </c>
+      <c r="N20">
+        <v>232.883003</v>
+      </c>
+      <c r="O20">
+        <v>0.2325920301377057</v>
+      </c>
+      <c r="P20">
+        <v>0.233607438823602</v>
+      </c>
+      <c r="Q20">
+        <v>112.545135976807</v>
+      </c>
+      <c r="R20">
+        <v>1012.906223791263</v>
+      </c>
+      <c r="S20">
+        <v>0.0001296353366426233</v>
+      </c>
+      <c r="T20">
+        <v>0.0001312924010477819</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.449807</v>
+      </c>
+      <c r="H21">
+        <v>4.349421</v>
+      </c>
+      <c r="I21">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J21">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.352083</v>
+      </c>
+      <c r="N21">
+        <v>8.704166000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.0130399360269903</v>
+      </c>
+      <c r="P21">
+        <v>0.008731242298328987</v>
+      </c>
+      <c r="Q21">
+        <v>6.309680397981001</v>
+      </c>
+      <c r="R21">
+        <v>37.85808238788601</v>
+      </c>
+      <c r="S21">
+        <v>7.267817799502156E-06</v>
+      </c>
+      <c r="T21">
+        <v>4.907145813722042E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>64.854191</v>
+      </c>
+      <c r="H22">
+        <v>129.708382</v>
+      </c>
+      <c r="I22">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J22">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>196.8487906666667</v>
+      </c>
+      <c r="N22">
+        <v>590.546372</v>
+      </c>
+      <c r="O22">
+        <v>0.5898085209504824</v>
+      </c>
+      <c r="P22">
+        <v>0.5923834015035012</v>
+      </c>
+      <c r="Q22">
+        <v>12766.46906801502</v>
+      </c>
+      <c r="R22">
+        <v>76598.81440809011</v>
+      </c>
+      <c r="S22">
+        <v>0.01470508255204222</v>
+      </c>
+      <c r="T22">
+        <v>0.0099287002338768</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>64.854191</v>
+      </c>
+      <c r="H23">
+        <v>129.708382</v>
+      </c>
+      <c r="I23">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J23">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.2899643333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.869893</v>
+      </c>
+      <c r="O23">
+        <v>0.0008688061226717315</v>
+      </c>
+      <c r="P23">
+        <v>0.0008725990010553907</v>
+      </c>
+      <c r="Q23">
+        <v>18.80540225718767</v>
+      </c>
+      <c r="R23">
+        <v>112.832413543126</v>
+      </c>
+      <c r="S23">
+        <v>2.1661039645577E-05</v>
+      </c>
+      <c r="T23">
+        <v>1.462528133615863E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>64.854191</v>
+      </c>
+      <c r="H24">
+        <v>129.708382</v>
+      </c>
+      <c r="I24">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J24">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>54.63182799999999</v>
+      </c>
+      <c r="N24">
+        <v>163.895484</v>
+      </c>
+      <c r="O24">
+        <v>0.1636907067621498</v>
+      </c>
+      <c r="P24">
+        <v>0.1644053183735123</v>
+      </c>
+      <c r="Q24">
+        <v>3543.103007791147</v>
+      </c>
+      <c r="R24">
+        <v>21258.61804674688</v>
+      </c>
+      <c r="S24">
+        <v>0.004081130181131508</v>
+      </c>
+      <c r="T24">
+        <v>0.002755531500110801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>64.854191</v>
+      </c>
+      <c r="H25">
+        <v>129.708382</v>
+      </c>
+      <c r="I25">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J25">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>77.62766766666668</v>
+      </c>
+      <c r="N25">
+        <v>232.883003</v>
+      </c>
+      <c r="O25">
+        <v>0.2325920301377057</v>
+      </c>
+      <c r="P25">
+        <v>0.233607438823602</v>
+      </c>
+      <c r="Q25">
+        <v>5034.479585738525</v>
+      </c>
+      <c r="R25">
+        <v>30206.87751443115</v>
+      </c>
+      <c r="S25">
+        <v>0.005798975231165245</v>
+      </c>
+      <c r="T25">
+        <v>0.003915400442680277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>64.854191</v>
+      </c>
+      <c r="H26">
+        <v>129.708382</v>
+      </c>
+      <c r="I26">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J26">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.352083</v>
+      </c>
+      <c r="N26">
+        <v>8.704166000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.0130399360269903</v>
+      </c>
+      <c r="P26">
+        <v>0.008731242298328987</v>
+      </c>
+      <c r="Q26">
+        <v>282.250822129853</v>
+      </c>
+      <c r="R26">
+        <v>1129.003288519412</v>
+      </c>
+      <c r="S26">
+        <v>0.0003251111656393661</v>
+      </c>
+      <c r="T26">
+        <v>0.0001463408448471554</v>
       </c>
     </row>
   </sheetData>
